--- a/09_Huseyni_Pesrev/changes.xlsx
+++ b/09_Huseyni_Pesrev/changes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16520" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1.Hane" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Note</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>sub</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>new note</t>
   </si>
 </sst>
 </file>
@@ -101,8 +107,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="121">
+  <cellStyleXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -228,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="121">
+  <cellStyles count="125">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -289,6 +299,8 @@
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -349,6 +361,8 @@
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -678,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -703,6 +717,48 @@
       </c>
       <c r="D1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>20.821999999999999</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45557</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -720,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -795,10 +851,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -818,34 +874,6 @@
       </c>
       <c r="D1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>20.821999999999999</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45557</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/09_Huseyni_Pesrev/changes.xlsx
+++ b/09_Huseyni_Pesrev/changes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1.Hane" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>Note</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>E5</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>add</t>
   </si>
 </sst>
 </file>
@@ -171,7 +177,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="A4:D4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -256,8 +262,8 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:D4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -345,7 +351,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A4:D4 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -386,10 +392,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A4:D4 A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -413,6 +419,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
